--- a/frontend/Excel.Test/score_1.xlsx
+++ b/frontend/Excel.Test/score_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project_int3509\frontend\Excel.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA9798B-5E07-4D07-9505-54C5DC2E9733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B2619C-ECF7-48F3-B8F6-645506BF8EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F2802D8D-390D-4525-909C-B8B5158C3A94}"/>
   </bookViews>
@@ -260,7 +260,7 @@
     <t>university</t>
   </si>
   <si>
-    <t>tabletennis</t>
+    <t>basketball</t>
   </si>
 </sst>
 </file>
